--- a/space/atlasSS/ASS_機能一覧.xlsx
+++ b/space/atlasSS/ASS_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/atlasSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB2CF91-9EAA-0E42-926F-384C69B4DCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E21903-053B-504C-8F3A-9C95C498767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -100,6 +100,242 @@
   </si>
   <si>
     <t>ATLAS Smart Security (Titan)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delivery-indexCustom.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-処理済みデータ削除ボタン押下</t>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在から90日以上経ったレコードを削除</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクゼィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-情報連携ボタン押下　作業ステータス：準備中
+　　　　　　　　　　　　担当者：ーーーー
+　　　　　　　　　　　　申し込み種別：新規申込</t>
+    <rPh sb="0" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュn</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報に情報を更新
+AL専用ボックスを会員情報登録済に更新</t>
+    <rPh sb="28" eb="30">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>故障品の情報を「検証待ち」、「故障品」に更新
+交換品の情報は出荷日、出荷用途以外は故障品からコピー
+出荷日、出荷用途は配送先リストから更新</t>
+    <rPh sb="20" eb="22">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-情報連携ボタン押下　作業ステータス：集荷待ち
+　　　　　　　　　　　　担当者：Accel Lab
+　　　　　　　　　　　　申し込み種別：故障交換（保証期間内）、故障交換（保証期間外）</t>
+    <rPh sb="0" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュn</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-情報連携ボタン押下　作業ステータス：集荷待ち
+　　　　　　　　　　　　担当者：Accel Lab
+　　　　　　　　　　　　申し込み種別：故障交換（保証期間内）、故障交換（保証期間外）以外</t>
+    <rPh sb="0" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュn</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モウシコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入されたシリアル番号に配送先リストの情報を追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-情報連携ボタン押下　作業ステータス：出荷完了
+　　　　　　　　　　　　担当者：ーーーー
+　　　　　　　　　　　　申し込み種別：新規申込、デバイス追加、故障交換（保証期間外）</t>
+    <rPh sb="0" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュn</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-情報連携ボタン押下　作業ステータス：着荷完了
+　　　　　　　　　　　　担当者：ーーーー
+　　　　　　　　　　　　申し込み種別：新規申込</t>
+    <rPh sb="0" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュn</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着荷日から7日以上過ぎたものの個数分積送（ASS）から減らす
+月次レポートの対応欄の出荷数を変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-情報連携ボタン押下　作業ステータス：着荷完了
+　　　　　　　　　　　　担当者：ーーーー
+　　　　　　　　　　　　申し込み種別：デバイス追加、故障交換（保証期間外）</t>
+    <rPh sb="0" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュn</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスの個数分積送（ASS）から減らす
+月次レポートの対応欄の出荷数を変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT-情報連携ボタン押下　作業ステータス：TOASTCAM登録待ち
+　　　　　　　　　　　　担当者：Accel Lab
+　　　　　　　　　　　　申し込み種別：ーーーー
+　　　　　　　　　　　　BizID登録済み</t>
+    <rPh sb="0" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュn</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業ステータスを必要情報入力済みに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在コメントアウト</t>
+  </si>
+  <si>
+    <t>デバイスの個数分積送（ASS）の商品を増やし、atlasの商品を減らす（在庫管理、商品管理）
+月次レポートの対応欄の出荷数、入荷数を変更</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -144,7 +380,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +502,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +537,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -659,35 +922,35 @@
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
     <col min="8" max="8" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14">
+      <c r="E1" s="23"/>
+      <c r="F1" s="21">
         <v>44496</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -715,102 +978,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="20">
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="60">
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="80">
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="80">
       <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="80">
       <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="60">
       <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="80">
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100">
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="14">
+    <row r="13" spans="1:8">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="14">
       <c r="A14"/>
